--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>시기</t>
@@ -469,9 +474,14 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -507,9 +517,12 @@
           <t>1392 : 태조</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -545,9 +558,12 @@
           <t>1393 : 태조</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -583,9 +599,12 @@
           <t>1394 : 태조</t>
         </is>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -621,9 +640,12 @@
           <t>1394 : 태조</t>
         </is>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -659,9 +681,12 @@
           <t>1395 : 태조</t>
         </is>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -697,9 +722,12 @@
           <t>1395 : 태조</t>
         </is>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -735,9 +763,12 @@
           <t>1395 : 태조</t>
         </is>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -773,9 +804,12 @@
           <t>1398 : 태조</t>
         </is>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -811,9 +845,12 @@
           <t>1398 : 태조</t>
         </is>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -849,9 +886,12 @@
           <t>1398 : 태조</t>
         </is>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -887,9 +927,12 @@
           <t>1399 : 정종</t>
         </is>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -925,9 +968,12 @@
           <t>1400 : 정종</t>
         </is>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -963,9 +1009,12 @@
           <t>1400 : 정종</t>
         </is>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1001,9 +1050,12 @@
           <t>1400 : 정종</t>
         </is>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1039,9 +1091,12 @@
           <t>1400 : 태종</t>
         </is>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1077,9 +1132,12 @@
           <t>1401 : 태종</t>
         </is>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1115,9 +1173,12 @@
           <t>1401 : 태종</t>
         </is>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1153,9 +1214,12 @@
           <t>1402 : 태종</t>
         </is>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1191,9 +1255,12 @@
           <t>1403 : 태종</t>
         </is>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1229,9 +1296,12 @@
           <t>1405 : 태종</t>
         </is>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1267,9 +1337,12 @@
           <t>1405 : 태종</t>
         </is>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -1305,9 +1378,12 @@
           <t>1405 : 태종</t>
         </is>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -1343,9 +1419,12 @@
           <t>1405 : 태종</t>
         </is>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -1381,9 +1460,12 @@
           <t>1405 : 태종</t>
         </is>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -1419,9 +1501,12 @@
           <t>1406 : 태종</t>
         </is>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -1457,9 +1542,12 @@
           <t>1406 : 태종</t>
         </is>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -1495,9 +1583,12 @@
           <t>1406 : 태종</t>
         </is>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -1533,9 +1624,12 @@
           <t>1413 : 태종</t>
         </is>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -1571,9 +1665,12 @@
           <t>1413 : 태종</t>
         </is>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -1609,9 +1706,12 @@
           <t>1414 : 태종</t>
         </is>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -1647,9 +1747,12 @@
           <t>1414 : 태종</t>
         </is>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -1685,9 +1788,12 @@
           <t>1414 : 태종</t>
         </is>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -1723,9 +1829,12 @@
           <t>1415 : 태종</t>
         </is>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -1761,9 +1870,12 @@
           <t>1415 : 태종</t>
         </is>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -1799,9 +1911,12 @@
           <t>1417 : 태종</t>
         </is>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -1837,9 +1952,12 @@
           <t>1419 : 세종</t>
         </is>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -1875,9 +1993,12 @@
           <t>1420 : 세종</t>
         </is>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -1913,9 +2034,12 @@
           <t>1420 : 세종</t>
         </is>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -1951,9 +2075,12 @@
           <t>1423 : 세종</t>
         </is>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -1989,9 +2116,12 @@
           <t>1424 : 세종</t>
         </is>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -2027,9 +2157,12 @@
           <t>1426 : 세종</t>
         </is>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -2065,9 +2198,12 @@
           <t>1429 : 세종</t>
         </is>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -2103,9 +2239,12 @@
           <t>1431 : 세종</t>
         </is>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -2141,9 +2280,12 @@
           <t>1432 : 세종</t>
         </is>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -2179,9 +2321,12 @@
           <t>1433 : 세종</t>
         </is>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -2217,9 +2362,12 @@
           <t>1433 : 세종</t>
         </is>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -2255,9 +2403,12 @@
           <t>1434 : 세종</t>
         </is>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -2293,9 +2444,12 @@
           <t>1434 : 세종</t>
         </is>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -2331,9 +2485,12 @@
           <t>1434 : 세종</t>
         </is>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -2369,9 +2526,12 @@
           <t>1435 : 세종</t>
         </is>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -2407,9 +2567,12 @@
           <t>1436 : 세종</t>
         </is>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -2445,9 +2608,12 @@
           <t>1437 : 세종</t>
         </is>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -2483,9 +2649,12 @@
           <t>1442 : 세종</t>
         </is>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -2521,9 +2690,12 @@
           <t>1443 : 세종</t>
         </is>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -2559,9 +2731,12 @@
           <t>1444 : 세종</t>
         </is>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -2597,9 +2772,12 @@
           <t>1444 : 세종</t>
         </is>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -2635,9 +2813,12 @@
           <t>1445 : 세종</t>
         </is>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -2673,9 +2854,12 @@
           <t>1445 : 세종</t>
         </is>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -2711,9 +2895,12 @@
           <t>1446 : 세종</t>
         </is>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -2749,9 +2936,12 @@
           <t>1447 : 세종</t>
         </is>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -2787,9 +2977,12 @@
           <t>1449 : 세종</t>
         </is>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -2825,9 +3018,12 @@
           <t>1451 : 문종</t>
         </is>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -2863,9 +3059,12 @@
           <t>1452 : 문종</t>
         </is>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -2901,9 +3100,12 @@
           <t>1453 : 단종</t>
         </is>
       </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -2939,9 +3141,12 @@
           <t>1453 : 단종</t>
         </is>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -2977,9 +3182,12 @@
           <t>1456 : 세조</t>
         </is>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -3015,9 +3223,12 @@
           <t>1457 : 세조</t>
         </is>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -3053,9 +3264,12 @@
           <t>1463 : 세조</t>
         </is>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -3091,9 +3305,12 @@
           <t>1464 : 세조</t>
         </is>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -3129,9 +3346,12 @@
           <t>1464 : 세조</t>
         </is>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -3167,9 +3387,12 @@
           <t>1465 : 세조</t>
         </is>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -3205,9 +3428,12 @@
           <t>1466 : 세조</t>
         </is>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -3243,9 +3469,12 @@
           <t>1466 : 세조</t>
         </is>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -3281,9 +3510,12 @@
           <t>1466 : 세조</t>
         </is>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -3319,9 +3551,12 @@
           <t>1466 : 세조</t>
         </is>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -3357,9 +3592,12 @@
           <t>1467 : 세조</t>
         </is>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -3395,9 +3633,12 @@
           <t>1467 : 세조</t>
         </is>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -3433,9 +3674,12 @@
           <t>1467 : 세조</t>
         </is>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -3471,9 +3715,12 @@
           <t>1469 : 성종</t>
         </is>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -3509,9 +3756,12 @@
           <t>1470 : 성종</t>
         </is>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -3547,9 +3797,12 @@
           <t>1471 : 성종</t>
         </is>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -3585,9 +3838,12 @@
           <t>1474 : 성종</t>
         </is>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -3623,9 +3879,12 @@
           <t>1476 : 성종</t>
         </is>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -3661,9 +3920,12 @@
           <t>1478 : 성종</t>
         </is>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -3699,9 +3961,12 @@
           <t>1485 : 성종</t>
         </is>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
@@ -3737,9 +4002,12 @@
           <t>1485 : 성종</t>
         </is>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
@@ -3775,9 +4043,12 @@
           <t>1489 : 성종</t>
         </is>
       </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
@@ -3813,9 +4084,12 @@
           <t>1492 : 성종</t>
         </is>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
@@ -3851,9 +4125,12 @@
           <t>1498 : 연산군</t>
         </is>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
@@ -3889,9 +4166,12 @@
           <t>1504 : 연산군</t>
         </is>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
@@ -3926,6 +4206,9 @@
         <is>
           <t>1506 : 연산군</t>
         </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>시기</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>시기</t>
+          <t>사건</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>사건</t>
+          <t>왕</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>왕</t>
+          <t>연도</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>연도</t>
+          <t>구분</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>구분</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>대답</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
@@ -482,3733 +477,3460 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1392</v>
+        <v>1398</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>숭례문 건립</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>조선 건국</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1392 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>숭례문 건립</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>조선 건국</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1392 : 태조</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+          <t>1398 : 태조</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1393</v>
+        <v>1442</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이순지의 칠정산 편찬</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>의흥삼군부 설치</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1442 : 세종</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1393 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>이순지의 칠정산 편찬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>의흥삼군부 설치</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1393 : 태조</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+          <t>1442 : 세종</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1394</v>
+        <v>1399</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개경 천도</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>개경에서 한양으로 천도</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1399 : 정종</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1394 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>개경 천도</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>개경에서 한양으로 천도</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1394 : 태조</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+          <t>1399 : 정종</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1394</v>
+        <v>1395</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>경복궁 건립</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>정도전 조선경국전 저술</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1394 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>경복궁 건립</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>정도전 조선경국전 저술</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1394 : 태조</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+          <t>1395 : 태조</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1395</v>
+        <v>1449</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>월인천강지곡 간행</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>경복궁 건립</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1449 : 세종</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>월인천강지곡 간행</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>경복궁 건립</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+          <t>1449 : 세종</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1395</v>
+        <v>1471</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>신숙주 해동제국기 편찬</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정도전 경제문감 저술</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1471 : 성종</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>신숙주 해동제국기 편찬</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>정도전 경제문감 저술</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+          <t>1471 : 성종</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1395</v>
+        <v>1414</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6조 직계제 실시</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>정도전 고려국사 저술</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>6조 직계제 실시</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>정도전 고려국사 저술</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>1414 : 태종</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1398</v>
+        <v>1400</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>승정원 설치</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>숭례문 건립</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>승정원 설치</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>숭례문 건립</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+          <t>1400 : 정종</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1398</v>
+        <v>1436</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>의정부 서사제 실시</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1차 왕자의 난</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1436 : 세종</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>의정부 서사제 실시</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1차 왕자의 난</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+          <t>1436 : 세종</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1398</v>
+        <v>1420</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>경자자 주조</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정도전 불씨잡변 저술</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>1420 : 세종</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>경자자 주조</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>정도전 불씨잡변 저술</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1399</v>
+        <v>1406</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>여진 무역소 설치</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>개경 천도</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1399 : 정종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>여진 무역소 설치</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>개경 천도</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1399 : 정종</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+          <t>1406 : 태종</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1400</v>
+        <v>1444</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>칠정산 저술</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>의정부 설치 및 도평의사사 폐지</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>1444 : 세종</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>칠정산 저술</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>의정부 설치 및 도평의사사 폐지</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1400</v>
+        <v>1415</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>서얼금고법 실시</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>승정원 설치</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>1415 : 태종</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>서얼금고법 실시</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>승정원 설치</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+          <t>1415 : 태종</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1400</v>
+        <v>1466</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>평시서 설치</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2차 왕자의 난으로 정종 축출</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>평시서 설치</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2차 왕자의 난으로 정종 축출</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1400</v>
+        <v>1434</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>앙부일구 제작</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>사병 혁파</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1434 : 세종</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1400 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>앙부일구 제작</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>사병 혁파</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1400 : 태종</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+          <t>1434 : 세종</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1401</v>
+        <v>1453</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>계유정난</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>사간원 설치</t>
+          <t>단종</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1453 : 단종</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1401 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>계유정난</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>사간원 설치</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1401 : 태종</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+          <t>1453 : 단종</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1401</v>
+        <v>1426</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3포 개항</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>신문고 설치</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1426 : 세종</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1401 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>3포 개항</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>신문고 설치</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1401 : 태종</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+          <t>1426 : 세종</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1402</v>
+        <v>1431</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>과전 지급 토지를 경기로 환원</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>저화 재발행</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1431 : 세종</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1402 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>과전 지급 토지를 경기로 환원</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>저화 재발행</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1402 : 태종</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>1431 : 세종</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1403</v>
+        <v>1498</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>무오사화</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>주자소 설치</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1498 : 연산군</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1403 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>무오사화</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>주자소 설치</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1403 : 태종</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>1498 : 연산군</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1405</v>
+        <v>1395</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>정도전 고려국사 저술</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>한양 재천도</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>정도전 고려국사 저술</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>한양 재천도</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+          <t>1395 : 태조</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1405</v>
+        <v>1445</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>의방유취 편찬</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6조의 속사 속아문제도 실시</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1445 : 세종</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>의방유취 편찬</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6조의 속사 속아문제도 실시</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1405</v>
+        <v>1400</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>사병 혁파</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>양전 사업 실시</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1400 : 태종</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>사병 혁파</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>양전 사업 실시</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+          <t>1400 : 태종</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1405</v>
+        <v>1415</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>조지서 설치</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>종로에 시전 설치</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1415 : 태종</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>조지서 설치</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>종로에 시전 설치</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+          <t>1415 : 태종</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1405</v>
+        <v>1469</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>관수관급제 실시</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>승정원 독립 및 설치</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1469 : 성종</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>관수관급제 실시</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>승정원 독립 및 설치</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+          <t>1469 : 성종</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1406</v>
+        <v>1417</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>과전의 1/3을 하삼도 토지에서 지급</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>유향소 폐지</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1417 : 태종</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>과전의 1/3을 하삼도 토지에서 지급</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>유향소 폐지</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+          <t>1417 : 태종</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1406</v>
+        <v>1453</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>이징옥의 난</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>사원 혁파</t>
+          <t>단종</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1453 : 단종</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>이징옥의 난</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>사원 혁파</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+          <t>1453 : 단종</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1406</v>
+        <v>1403</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>주자소 설치</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>여진 무역소 설치</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1403 : 태종</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>주자소 설치</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>여진 무역소 설치</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+          <t>1403 : 태종</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1413</v>
+        <v>1405</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>양전 사업 실시</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>호패법 실시</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1413 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>양전 사업 실시</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>호패법 실시</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1413 : 태종</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1413</v>
+        <v>1504</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>갑자사화</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>태조실록 편찬</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1504 : 연산군</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1413 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>갑자사화</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>태조실록 편찬</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1413 : 태종</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+          <t>1504 : 연산군</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1414</v>
+        <v>1413</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>태조실록 편찬</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6조 직계제 실시</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1413 : 태종</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>태조실록 편찬</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6조 직계제 실시</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+          <t>1413 : 태종</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1414</v>
+        <v>1464</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>보법 수립</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>의금부 설치</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1464 : 세조</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>보법 수립</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>의금부 설치</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
+          <t>1464 : 세조</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1414</v>
+        <v>1492</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>도첩제 폐지</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>노비종부법 실시</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1492 : 성종</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>도첩제 폐지</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>노비종부법 실시</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
+          <t>1492 : 성종</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1415</v>
+        <v>1405</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>종로에 시전 설치</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>조지서 설치</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1415 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>종로에 시전 설치</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>조지서 설치</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1415 : 태종</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1415</v>
+        <v>1393</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>의흥삼군부 설치</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>서얼금고법 실시</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1393 : 태조</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1415 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>의흥삼군부 설치</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>서얼금고법 실시</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1415 : 태종</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+          <t>1393 : 태조</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1417</v>
+        <v>1419</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>이종무의 대마도 토벌</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>과전의 1/3을 하삼도 토지에서 지급</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>1419 : 세종</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1417 : 태종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>이종무의 대마도 토벌</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>과전의 1/3을 하삼도 토지에서 지급</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1417 : 태종</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+          <t>1419 : 세종</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1419</v>
+        <v>1451</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>국가 주도의 사창제 실시</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>이종무의 대마도 토벌</t>
+          <t>문종</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1451 : 문종</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1419 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>국가 주도의 사창제 실시</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>이종무의 대마도 토벌</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1419 : 세종</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+          <t>1451 : 문종</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1420</v>
+        <v>1474</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>신숙주 국조오례의 저술</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>집현전 설치</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1474 : 성종</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1420 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>신숙주 국조오례의 저술</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>집현전 설치</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1420 : 세종</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+          <t>1474 : 성종</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1420</v>
+        <v>1423</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>조선통보 발행</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>경자자 주조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1423 : 세종</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1420 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>조선통보 발행</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>경자자 주조</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1420 : 세종</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
+          <t>1423 : 세종</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1423</v>
+        <v>1467</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>장례원 설치</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>조선통보 발행</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1423 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>장례원 설치</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>조선통보 발행</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1423 : 세종</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1424</v>
+        <v>1465</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>규형 및 인지의 제작</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36개 불교 사원만 인정</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1465 : 세조</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1424 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>규형 및 인지의 제작</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>36개 불교 사원만 인정</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1424 : 세종</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+          <t>1465 : 세조</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1426</v>
+        <v>1437</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>김종서의 6진 설치</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3포 개항</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1437 : 세종</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1426 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>김종서의 6진 설치</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3포 개항</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1426 : 세종</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
+          <t>1437 : 세종</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1429</v>
+        <v>1402</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>저화 재발행</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>정초 변효문 농사직설 편찬</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1402 : 태종</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1429 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>저화 재발행</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>정초 변효문 농사직설 편찬</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1429 : 세종</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+          <t>1402 : 태종</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1431</v>
+        <v>1401</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>사간원 설치</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>과전 지급 토지를 경기로 환원</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1401 : 태종</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1431 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>사간원 설치</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>과전 지급 토지를 경기로 환원</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1431 : 세종</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+          <t>1401 : 태종</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1432</v>
+        <v>1395</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>정도전 경제문감 저술</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1432 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>정도전 경제문감 저술</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1432 : 세종</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
+          <t>1395 : 태조</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1433</v>
+        <v>1467</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>원각사지 10층석탑 제작</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>최윤덕의 4군 설치</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1433 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>원각사지 10층석탑 제작</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>최윤덕의 4군 설치</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1433 : 세종</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1433</v>
+        <v>1447</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>수양대군의 석보상절 간행</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>향약집성방 편찬</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1447 : 세종</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1433 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>수양대군의 석보상절 간행</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>향약집성방 편찬</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1433 : 세종</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+          <t>1447 : 세종</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1434</v>
+        <v>1444</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>공법 시행</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>앙부일구 제작</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1444 : 세종</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1434 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>공법 시행</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>앙부일구 제작</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
         <v>1434</v>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>삼강행실도 언해</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>갑인자 주조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1434 : 세종</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>삼강행실도 언해</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>1434 : 세종</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>갑인자 주조</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1434</v>
+        <v>1457</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>진관체제 실시</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>삼강행실도 언해</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1457 : 세조</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1434 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>진관체제 실시</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>삼강행실도 언해</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+          <t>1457 : 세조</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1435</v>
+        <v>1406</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>유향소 폐지</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>경재소 제도화</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1435 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>유향소 폐지</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>경재소 제도화</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1435 : 세종</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+          <t>1406 : 태종</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1436</v>
+        <v>1392</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>조선 건국</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>의정부 서사제 실시</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1392 : 태조</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1436 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>조선 건국</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>의정부 서사제 실시</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>1436 : 세종</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+          <t>1392 : 태조</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1437</v>
+        <v>1433</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>최윤덕의 4군 설치</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>김종서의 6진 설치</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1433 : 세종</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1437 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>최윤덕의 4군 설치</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>김종서의 6진 설치</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1437 : 세종</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+          <t>1433 : 세종</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1442</v>
+        <v>1405</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6조의 속사 속아문제도 실시</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>이순지의 칠정산 편찬</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1442 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>6조의 속사 속아문제도 실시</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>이순지의 칠정산 편찬</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1442 : 세종</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1443</v>
+        <v>1432</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>계해약조 체결</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1432 : 세종</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1443 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>계해약조 체결</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1443 : 세종</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+          <t>1432 : 세종</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1444</v>
+        <v>1401</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>신문고 설치</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>칠정산 저술</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1401 : 태종</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1444 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>신문고 설치</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>칠정산 저술</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>1444 : 세종</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+          <t>1401 : 태종</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1444</v>
+        <v>1485</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>서거정 등 동국통감 편찬</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>공법 시행</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1485 : 성종</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1444 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>서거정 등 동국통감 편찬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>공법 시행</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1444 : 세종</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+          <t>1485 : 성종</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1445</v>
+        <v>1398</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>정도전 불씨잡변 저술</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>용비어천가 간행</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1445 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>정도전 불씨잡변 저술</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>용비어천가 간행</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1445 : 세종</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+          <t>1398 : 태조</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1445</v>
+        <v>1466</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>직전법 실시</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>의방유취 편찬</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1445 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>직전법 실시</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>의방유취 편찬</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1445 : 세종</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1446</v>
+        <v>1406</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>사원 혁파</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>훈민정음 반포</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1446 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>사원 혁파</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>훈민정음 반포</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1446 : 세종</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+          <t>1406 : 태종</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1447</v>
+        <v>1433</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>향약집성방 편찬</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>수양대군의 석보상절 간행</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1433 : 세종</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1447 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>향약집성방 편찬</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>수양대군의 석보상절 간행</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1447 : 세종</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+          <t>1433 : 세종</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1449</v>
+        <v>1478</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>서거정 등 동문선 저술</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>월인천강지곡 간행</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>1478 : 성종</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1449 : 세종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>서거정 등 동문선 저술</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>월인천강지곡 간행</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>1449 : 세종</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+          <t>1478 : 성종</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1451</v>
+        <v>1420</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>집현전 설치</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 실시</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>문종</t>
+          <t>1420 : 세종</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1451 : 문종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>집현전 설치</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 실시</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1451 : 문종</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1452</v>
+        <v>1394</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>개경에서 한양으로 천도</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>고려사절요 편찬</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>문종</t>
+          <t>1394 : 태조</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1452 : 문종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>개경에서 한양으로 천도</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>고려사절요 편찬</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>1452 : 문종</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+          <t>1394 : 태조</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1453</v>
+        <v>1435</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>경재소 제도화</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>계유정난</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>단종</t>
+          <t>1435 : 세종</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1453 : 단종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>경재소 제도화</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>계유정난</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1453 : 단종</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+          <t>1435 : 세종</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1453</v>
+        <v>1398</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1차 왕자의 난</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>이징옥의 난</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>단종</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1453 : 단종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>1차 왕자의 난</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>이징옥의 난</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1453 : 단종</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
+          <t>1398 : 태조</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1456</v>
+        <v>1405</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>승정원 독립 및 설치</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>사육신의 단종 복위 운동</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1456 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>승정원 독립 및 설치</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>사육신의 단종 복위 운동</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>1456 : 세조</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1457</v>
+        <v>1467</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>이시애의 난</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>진관체제 실시</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1457 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>이시애의 난</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>진관체제 실시</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1457 : 세조</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1463</v>
+        <v>1464</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>팔방통보 유엽전 발행</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>양성지 동국지도 제작</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1464 : 세조</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1463 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>팔방통보 유엽전 발행</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>양성지 동국지도 제작</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1463 : 세조</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+          <t>1464 : 세조</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1464</v>
+        <v>1456</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>사육신의 단종 복위 운동</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>보법 수립</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1456 : 세조</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1464 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>사육신의 단종 복위 운동</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>보법 수립</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1464 : 세조</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+          <t>1456 : 세조</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1464</v>
+        <v>1446</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>훈민정음 반포</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>팔방통보 유엽전 발행</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1446 : 세종</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1464 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>훈민정음 반포</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>팔방통보 유엽전 발행</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1464 : 세조</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+          <t>1446 : 세종</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1465</v>
+        <v>1489</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>유향소 부활</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>규형 및 인지의 제작</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1489 : 성종</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1465 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>유향소 부활</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>규형 및 인지의 제작</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>1465 : 세조</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+          <t>1489 : 성종</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1466</v>
+        <v>1405</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>한양 재천도</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>직전법 실시</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>한양 재천도</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>직전법 실시</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1466</v>
+        <v>1424</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>36개 불교 사원만 인정</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5위 설치</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1424 : 세종</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>36개 불교 사원만 인정</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5위 설치</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1466</v>
+        <v>1394</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>정도전 조선경국전 저술</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>평시서 설치</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1394 : 태조</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>정도전 조선경국전 저술</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>평시서 설치</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+          <t>1394 : 태조</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1466</v>
+        <v>1470</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>국가 주도의 사창제 폐지</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>소격서 설치</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1470 : 성종</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>국가 주도의 사창제 폐지</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>소격서 설치</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+          <t>1470 : 성종</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1467</v>
+        <v>1463</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>양성지 동국지도 제작</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>이시애의 난</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1463 : 세조</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>양성지 동국지도 제작</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>이시애의 난</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+          <t>1463 : 세조</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1467</v>
+        <v>1466</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>소격서 설치</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>원각사지 10층석탑 제작</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>소격서 설치</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>원각사지 10층석탑 제작</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1467</v>
+        <v>1400</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>의정부 설치 및 도평의사사 폐지</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>장례원 설치</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>의정부 설치 및 도평의사사 폐지</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>장례원 설치</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+          <t>1400 : 정종</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1469</v>
+        <v>1506</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>중종반정</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>관수관급제 실시</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1506 : 연산군</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1469 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>중종반정</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>관수관급제 실시</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1469 : 성종</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+          <t>1506 : 연산군</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1470</v>
+        <v>1429</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>정초 변효문 농사직설 편찬</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 폐지</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1429 : 세종</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1470 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>정초 변효문 농사직설 편찬</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 폐지</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>1470 : 성종</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
+          <t>1429 : 세종</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1471</v>
+        <v>1485</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>경국대전 완성</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>신숙주 해동제국기 편찬</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1485 : 성종</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1471 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>경국대전 완성</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>신숙주 해동제국기 편찬</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>1471 : 성종</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+          <t>1485 : 성종</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1474</v>
+        <v>1476</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>안동 권씨 성화보 간행</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>신숙주 국조오례의 저술</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1476 : 성종</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1474 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>안동 권씨 성화보 간행</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>신숙주 국조오례의 저술</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>1474 : 성종</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+          <t>1476 : 성종</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1476</v>
+        <v>1443</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>계해약조 체결</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>안동 권씨 성화보 간행</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1443 : 세종</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1476 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>계해약조 체결</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>안동 권씨 성화보 간행</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>1476 : 성종</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+          <t>1443 : 세종</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1478</v>
+        <v>1445</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>용비어천가 간행</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>서거정 등 동문선 저술</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1445 : 세종</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1478 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>용비어천가 간행</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>서거정 등 동문선 저술</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>1478 : 성종</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1485</v>
+        <v>1400</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2차 왕자의 난으로 정종 축출</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>서거정 등 동국통감 편찬</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1485 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>2차 왕자의 난으로 정종 축출</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>서거정 등 동국통감 편찬</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>1485 : 성종</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+          <t>1400 : 정종</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1485</v>
+        <v>1413</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>호패법 실시</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>경국대전 완성</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1413 : 태종</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1485 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>호패법 실시</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>경국대전 완성</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>1485 : 성종</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+          <t>1413 : 태종</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1489</v>
+        <v>1434</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>갑인자 주조</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>유향소 부활</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1434 : 세종</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1489 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>갑인자 주조</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>유향소 부활</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>1489 : 성종</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
+          <t>1434 : 세종</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1492</v>
+        <v>1466</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5위 설치</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>도첩제 폐지</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1492 : 성종</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>5위 설치</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>도첩제 폐지</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>1492 : 성종</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1498</v>
+        <v>1452</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>고려사절요 편찬</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>무오사화</t>
+          <t>문종</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>1452 : 문종</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1498 : 연산군</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>고려사절요 편찬</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>무오사화</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>1498 : 연산군</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
+          <t>1452 : 문종</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1504</v>
+        <v>1414</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>노비종부법 실시</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>갑자사화</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1504 : 연산군</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>노비종부법 실시</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>갑자사화</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>1504 : 연산군</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
+          <t>1414 : 태종</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1506</v>
+        <v>1414</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>의금부 설치</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>중종반정</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1506 : 연산군</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>의금부 설치</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>중종반정</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>1506 : 연산군</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
+          <t>1414 : 태종</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>사건</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>연도</t>
+          <t>대답</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -460,16 +460,6 @@
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>질문</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
@@ -477,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>숭례문 건립</t>
+          <t>조선 건국</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>1392 : 태조</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,37 +489,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>숭례문 건립</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1442</v>
+        <v>1393</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이순지의 칠정산 편찬</t>
+          <t>의흥삼군부 설치</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1442 : 세종</t>
+          <t>1393 : 태조</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,37 +517,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>이순지의 칠정산 편찬</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1442 : 세종</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>개경 천도</t>
+          <t>개경에서 한양으로 천도</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1399 : 정종</t>
+          <t>1394 : 태조</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,27 +545,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>개경 천도</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1399 : 정종</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경복궁 건립</t>
+          <t>정도전 조선경국전 저술</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +565,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>1394 : 태조</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,37 +573,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>경복궁 건립</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1449</v>
+        <v>1395</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>월인천강지곡 간행</t>
+          <t>경복궁 건립</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1449 : 세종</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,37 +601,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>월인천강지곡 간행</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1449 : 세종</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1471</v>
+        <v>1395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>신숙주 해동제국기 편찬</t>
+          <t>정도전 경제문감 저술</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1471 : 성종</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -689,37 +629,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>신숙주 해동제국기 편찬</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1471 : 성종</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1414</v>
+        <v>1395</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6조 직계제 실시</t>
+          <t>정도전 고려국사 저술</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>1395 : 태조</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -727,37 +657,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6조 직계제 실시</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>승정원 설치</t>
+          <t>숭례문 건립</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -765,37 +685,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>승정원 설치</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1436</v>
+        <v>1398</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>의정부 서사제 실시</t>
+          <t>1차 왕자의 난</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1436 : 세종</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -803,37 +713,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>의정부 서사제 실시</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1436 : 세종</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경자자 주조</t>
+          <t>정도전 불씨잡변 저술</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태조</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1420 : 세종</t>
+          <t>1398 : 태조</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,37 +741,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>경자자 주조</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1420 : 세종</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>여진 무역소 설치</t>
+          <t>개경 천도</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>1399 : 정종</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -879,37 +769,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>여진 무역소 설치</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>-1</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1444</v>
+        <v>1400</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>칠정산 저술</t>
+          <t>의정부 설치 및 도평의사사 폐지</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1444 : 세종</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -917,37 +797,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>칠정산 저술</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1444 : 세종</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>서얼금고법 실시</t>
+          <t>승정원 설치</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1415 : 태종</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -955,37 +825,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>서얼금고법 실시</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1415 : 태종</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1466</v>
+        <v>1400</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>평시서 설치</t>
+          <t>2차 왕자의 난으로 정종 축출</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>정종</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>1400 : 정종</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -993,37 +853,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>평시서 설치</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1434</v>
+        <v>1400</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>앙부일구 제작</t>
+          <t>사병 혁파</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1434 : 세종</t>
+          <t>1400 : 태종</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1031,37 +881,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>앙부일구 제작</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1453</v>
+        <v>1401</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>계유정난</t>
+          <t>사간원 설치</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>단종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1453 : 단종</t>
+          <t>1401 : 태종</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1069,37 +909,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>계유정난</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1453 : 단종</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3포 개항</t>
+          <t>신문고 설치</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1426 : 세종</t>
+          <t>1401 : 태종</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1107,37 +937,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3포 개항</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1426 : 세종</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1431</v>
+        <v>1402</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>과전 지급 토지를 경기로 환원</t>
+          <t>저화 재발행</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1431 : 세종</t>
+          <t>1402 : 태종</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1145,37 +965,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>과전 지급 토지를 경기로 환원</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1431 : 세종</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1498</v>
+        <v>1403</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>무오사화</t>
+          <t>주자소 설치</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1498 : 연산군</t>
+          <t>1403 : 태종</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1183,37 +993,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>무오사화</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1498 : 연산군</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1395</v>
+        <v>1405</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>정도전 고려국사 저술</t>
+          <t>한양 재천도</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1221,37 +1021,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>정도전 고려국사 저술</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1445</v>
+        <v>1405</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>의방유취 편찬</t>
+          <t>6조의 속사 속아문제도 실시</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1445 : 세종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1259,27 +1049,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>의방유취 편찬</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1445 : 세종</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>사병 혁파</t>
+          <t>양전 사업 실시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1289,7 +1069,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1400 : 태종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1297,27 +1077,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>사병 혁파</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1400 : 태종</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>조지서 설치</t>
+          <t>종로에 시전 설치</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1327,7 +1097,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1415 : 태종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1335,37 +1105,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>조지서 설치</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1415 : 태종</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1469</v>
+        <v>1405</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>관수관급제 실시</t>
+          <t>승정원 독립 및 설치</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1469 : 성종</t>
+          <t>1405 : 태종</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1373,27 +1133,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>관수관급제 실시</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1469 : 성종</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>과전의 1/3을 하삼도 토지에서 지급</t>
+          <t>유향소 폐지</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1403,7 +1153,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1417 : 태종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1411,37 +1161,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>과전의 1/3을 하삼도 토지에서 지급</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1417 : 태종</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1453</v>
+        <v>1406</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>이징옥의 난</t>
+          <t>사원 혁파</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>단종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1453 : 단종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1449,27 +1189,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>이징옥의 난</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1453 : 단종</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>주자소 설치</t>
+          <t>여진 무역소 설치</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1479,7 +1209,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1403 : 태종</t>
+          <t>1406 : 태종</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1487,27 +1217,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>주자소 설치</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1403 : 태종</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>양전 사업 실시</t>
+          <t>호패법 실시</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1517,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>1413 : 태종</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1525,37 +1245,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>양전 사업 실시</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1504</v>
+        <v>1413</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>갑자사화</t>
+          <t>태조실록 편찬</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1504 : 연산군</t>
+          <t>1413 : 태종</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1563,27 +1273,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>갑자사화</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1504 : 연산군</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>태조실록 편찬</t>
+          <t>6조 직계제 실시</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1593,7 +1293,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1413 : 태종</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1601,37 +1301,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>태조실록 편찬</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1413 : 태종</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1464</v>
+        <v>1414</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>보법 수립</t>
+          <t>의금부 설치</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1464 : 세조</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1639,37 +1329,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>보법 수립</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1464 : 세조</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>-1</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1492</v>
+        <v>1414</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>도첩제 폐지</t>
+          <t>노비종부법 실시</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1492 : 성종</t>
+          <t>1414 : 태종</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1677,27 +1357,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>도첩제 폐지</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1492 : 성종</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>-1</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1405</v>
+        <v>1415</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>종로에 시전 설치</t>
+          <t>조지서 설치</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1707,7 +1377,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>1415 : 태종</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1715,37 +1385,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>종로에 시전 설치</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1393</v>
+        <v>1415</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>의흥삼군부 설치</t>
+          <t>서얼금고법 실시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1393 : 태조</t>
+          <t>1415 : 태종</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1753,37 +1413,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>의흥삼군부 설치</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1393 : 태조</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>이종무의 대마도 토벌</t>
+          <t>과전의 1/3을 하삼도 토지에서 지급</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>태종</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1419 : 세종</t>
+          <t>1417 : 태종</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1791,37 +1441,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>이종무의 대마도 토벌</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1419 : 세종</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1451</v>
+        <v>1419</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 실시</t>
+          <t>이종무의 대마도 토벌</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>문종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1451 : 문종</t>
+          <t>1419 : 세종</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1829,37 +1469,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>국가 주도의 사창제 실시</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1451 : 문종</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1474</v>
+        <v>1420</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>신숙주 국조오례의 저술</t>
+          <t>집현전 설치</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1474 : 성종</t>
+          <t>1420 : 세종</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1867,27 +1497,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>신숙주 국조오례의 저술</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1474 : 성종</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>조선통보 발행</t>
+          <t>경자자 주조</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1897,7 +1517,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1423 : 세종</t>
+          <t>1420 : 세종</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1905,37 +1525,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>조선통보 발행</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1423 : 세종</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>-1</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1467</v>
+        <v>1423</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>장례원 설치</t>
+          <t>조선통보 발행</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>1423 : 세종</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1943,37 +1553,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>장례원 설치</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1465</v>
+        <v>1424</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>규형 및 인지의 제작</t>
+          <t>36개 불교 사원만 인정</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1465 : 세조</t>
+          <t>1424 : 세종</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1981,27 +1581,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>규형 및 인지의 제작</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1465 : 세조</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>김종서의 6진 설치</t>
+          <t>3포 개항</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2011,7 +1601,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1437 : 세종</t>
+          <t>1426 : 세종</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2019,37 +1609,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>김종서의 6진 설치</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1437 : 세종</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>-1</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1402</v>
+        <v>1429</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>저화 재발행</t>
+          <t>정초 변효문 농사직설 편찬</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1402 : 태종</t>
+          <t>1429 : 세종</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2057,37 +1637,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>저화 재발행</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1402 : 태종</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1401</v>
+        <v>1431</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>사간원 설치</t>
+          <t>과전 지급 토지를 경기로 환원</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1401 : 태종</t>
+          <t>1431 : 세종</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2095,37 +1665,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>사간원 설치</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>1401 : 태종</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1395</v>
+        <v>1432</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>정도전 경제문감 저술</t>
+          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1395 : 태조</t>
+          <t>1432 : 세종</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2133,37 +1693,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>정도전 경제문감 저술</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1395 : 태조</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>-1</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1467</v>
+        <v>1433</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>원각사지 10층석탑 제작</t>
+          <t>최윤덕의 4군 설치</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>1433 : 세종</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2171,27 +1721,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>원각사지 10층석탑 제작</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>수양대군의 석보상절 간행</t>
+          <t>향약집성방 편찬</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2201,7 +1741,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1447 : 세종</t>
+          <t>1433 : 세종</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2209,27 +1749,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>수양대군의 석보상절 간행</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>1447 : 세종</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>공법 시행</t>
+          <t>앙부일구 제작</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2239,7 +1769,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1444 : 세종</t>
+          <t>1434 : 세종</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2247,17 +1777,7 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>공법 시행</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1444 : 세종</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +1787,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼강행실도 언해</t>
+          <t>갑인자 주조</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2285,37 +1805,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>삼강행실도 언해</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1457</v>
+        <v>1434</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>진관체제 실시</t>
+          <t>삼강행실도 언해</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1457 : 세조</t>
+          <t>1434 : 세종</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2323,37 +1833,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>진관체제 실시</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1457 : 세조</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1406</v>
+        <v>1435</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>유향소 폐지</t>
+          <t>경재소 제도화</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>1435 : 세종</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2361,37 +1861,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>유향소 폐지</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1392</v>
+        <v>1436</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>조선 건국</t>
+          <t>의정부 서사제 실시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1392 : 태조</t>
+          <t>1436 : 세종</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2399,27 +1889,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>조선 건국</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1392 : 태조</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
+      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>최윤덕의 4군 설치</t>
+          <t>김종서의 6진 설치</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2429,7 +1909,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1433 : 세종</t>
+          <t>1437 : 세종</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2437,37 +1917,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>최윤덕의 4군 설치</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1433 : 세종</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
+      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6조의 속사 속아문제도 실시</t>
+          <t>이순지의 칠정산 편찬</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>1442 : 세종</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2475,27 +1945,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6조의 속사 속아문제도 실시</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
+      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
+          <t>계해약조 체결</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2505,7 +1965,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1432 : 세종</t>
+          <t>1443 : 세종</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2513,37 +1973,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1432 : 세종</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1401</v>
+        <v>1444</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>신문고 설치</t>
+          <t>칠정산 저술</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1401 : 태종</t>
+          <t>1444 : 세종</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2551,37 +2001,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>신문고 설치</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>1401 : 태종</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
+      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1485</v>
+        <v>1444</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>서거정 등 동국통감 편찬</t>
+          <t>공법 시행</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1485 : 성종</t>
+          <t>1444 : 세종</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2589,37 +2029,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>서거정 등 동국통감 편찬</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1485 : 성종</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
+      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1398</v>
+        <v>1445</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>정도전 불씨잡변 저술</t>
+          <t>용비어천가 간행</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>1445 : 세종</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2627,37 +2057,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>정도전 불씨잡변 저술</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
+      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>직전법 실시</t>
+          <t>의방유취 편찬</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>1445 : 세종</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2665,37 +2085,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>직전법 실시</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
+      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1406</v>
+        <v>1446</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>사원 혁파</t>
+          <t>훈민정음 반포</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1406 : 태종</t>
+          <t>1446 : 세종</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2703,27 +2113,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>사원 혁파</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>1406 : 태종</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>향약집성방 편찬</t>
+          <t>수양대군의 석보상절 간행</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2733,7 +2133,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1433 : 세종</t>
+          <t>1447 : 세종</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2741,37 +2141,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>향약집성방 편찬</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>1433 : 세종</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
+      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1478</v>
+        <v>1449</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>서거정 등 동문선 저술</t>
+          <t>월인천강지곡 간행</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>세종</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1478 : 성종</t>
+          <t>1449 : 세종</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2779,37 +2169,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>서거정 등 동문선 저술</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>1478 : 성종</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+      <c r="F62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>집현전 설치</t>
+          <t>국가 주도의 사창제 실시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>문종</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1420 : 세종</t>
+          <t>1451 : 문종</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2817,37 +2197,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>집현전 설치</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>1420 : 세종</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
+      <c r="F63" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1394</v>
+        <v>1452</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>개경에서 한양으로 천도</t>
+          <t>고려사절요 편찬</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>문종</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1394 : 태조</t>
+          <t>1452 : 문종</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2855,37 +2225,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>개경에서 한양으로 천도</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>1394 : 태조</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="F64" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1435</v>
+        <v>1453</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경재소 제도화</t>
+          <t>계유정난</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>단종</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1435 : 세종</t>
+          <t>1453 : 단종</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2893,37 +2253,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>경재소 제도화</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>1435 : 세종</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+      <c r="F65" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1398</v>
+        <v>1453</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1차 왕자의 난</t>
+          <t>이징옥의 난</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>단종</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1398 : 태조</t>
+          <t>1453 : 단종</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2931,37 +2281,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1차 왕자의 난</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1398 : 태조</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
+      <c r="F66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1405</v>
+        <v>1456</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>승정원 독립 및 설치</t>
+          <t>사육신의 단종 복위 운동</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>1456 : 세조</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2969,27 +2309,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>승정원 독립 및 설치</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
+      <c r="F67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>이시애의 난</t>
+          <t>진관체제 실시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2999,7 +2329,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1467 : 세조</t>
+          <t>1457 : 세조</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3007,27 +2337,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>이시애의 난</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>1467 : 세조</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>팔방통보 유엽전 발행</t>
+          <t>양성지 동국지도 제작</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3037,7 +2357,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1464 : 세조</t>
+          <t>1463 : 세조</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3045,27 +2365,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>팔방통보 유엽전 발행</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1464 : 세조</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
+      <c r="F69" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1456</v>
+        <v>1464</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>사육신의 단종 복위 운동</t>
+          <t>보법 수립</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3075,7 +2385,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1456 : 세조</t>
+          <t>1464 : 세조</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3083,37 +2393,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>사육신의 단종 복위 운동</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1456 : 세조</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+      <c r="F70" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>훈민정음 반포</t>
+          <t>팔방통보 유엽전 발행</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1446 : 세종</t>
+          <t>1464 : 세조</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3121,37 +2421,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>훈민정음 반포</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>1446 : 세종</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="F71" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1489</v>
+        <v>1465</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>유향소 부활</t>
+          <t>규형 및 인지의 제작</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1489 : 성종</t>
+          <t>1465 : 세조</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3159,37 +2449,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>유향소 부활</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1489 : 성종</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
+      <c r="F72" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1405</v>
+        <v>1466</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>한양 재천도</t>
+          <t>직전법 실시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1405 : 태종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3197,37 +2477,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>한양 재천도</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1405 : 태종</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
+      <c r="F73" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1424</v>
+        <v>1466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>36개 불교 사원만 인정</t>
+          <t>5위 설치</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1424 : 세종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3235,37 +2505,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>36개 불교 사원만 인정</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>1424 : 세종</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
+      <c r="F74" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1394</v>
+        <v>1466</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>정도전 조선경국전 저술</t>
+          <t>평시서 설치</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>태조</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1394 : 태조</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3273,37 +2533,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>정도전 조선경국전 저술</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>1394 : 태조</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
+      <c r="F75" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>국가 주도의 사창제 폐지</t>
+          <t>소격서 설치</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>성종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1470 : 성종</t>
+          <t>1466 : 세조</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3311,27 +2561,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>국가 주도의 사창제 폐지</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>1470 : 성종</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
+      <c r="F76" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>양성지 동국지도 제작</t>
+          <t>이시애의 난</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3341,7 +2581,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1463 : 세조</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3349,27 +2589,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>양성지 동국지도 제작</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>1463 : 세조</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
+      <c r="F77" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>소격서 설치</t>
+          <t>원각사지 10층석탑 제작</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3379,7 +2609,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3387,37 +2617,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>소격서 설치</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
+      <c r="F78" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1400</v>
+        <v>1467</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>의정부 설치 및 도평의사사 폐지</t>
+          <t>장례원 설치</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>세조</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>1467 : 세조</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3425,37 +2645,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>의정부 설치 및 도평의사사 폐지</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
+      <c r="F79" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1506</v>
+        <v>1469</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>중종반정</t>
+          <t>관수관급제 실시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>연산군</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1506 : 연산군</t>
+          <t>1469 : 성종</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3463,37 +2673,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>중종반정</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1506 : 연산군</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
+      <c r="F80" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1429</v>
+        <v>1470</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>정초 변효문 농사직설 편찬</t>
+          <t>국가 주도의 사창제 폐지</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1429 : 세종</t>
+          <t>1470 : 성종</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3501,27 +2701,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>정초 변효문 농사직설 편찬</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>1429 : 세종</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
+      <c r="F81" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>경국대전 완성</t>
+          <t>신숙주 해동제국기 편찬</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3531,7 +2721,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1485 : 성종</t>
+          <t>1471 : 성종</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3539,27 +2729,17 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>경국대전 완성</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>1485 : 성종</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
+      <c r="F82" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>안동 권씨 성화보 간행</t>
+          <t>신숙주 국조오례의 저술</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3569,7 +2749,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1476 : 성종</t>
+          <t>1474 : 성종</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3577,37 +2757,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>안동 권씨 성화보 간행</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>1476 : 성종</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
+      <c r="F83" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1443</v>
+        <v>1476</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>계해약조 체결</t>
+          <t>안동 권씨 성화보 간행</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1443 : 세종</t>
+          <t>1476 : 성종</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3615,37 +2785,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>계해약조 체결</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>1443 : 세종</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
+      <c r="F84" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1445</v>
+        <v>1478</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>용비어천가 간행</t>
+          <t>서거정 등 동문선 저술</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1445 : 세종</t>
+          <t>1478 : 성종</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3653,37 +2813,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>용비어천가 간행</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>1445 : 세종</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+      <c r="F85" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1400</v>
+        <v>1485</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2차 왕자의 난으로 정종 축출</t>
+          <t>서거정 등 동국통감 편찬</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>정종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1400 : 정종</t>
+          <t>1485 : 성종</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3691,37 +2841,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2차 왕자의 난으로 정종 축출</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>1400 : 정종</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
+      <c r="F86" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1413</v>
+        <v>1485</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>호패법 실시</t>
+          <t>경국대전 완성</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1413 : 태종</t>
+          <t>1485 : 성종</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3729,37 +2869,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>호패법 실시</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>1413 : 태종</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+      <c r="F87" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1434</v>
+        <v>1489</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>갑인자 주조</t>
+          <t>유향소 부활</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1434 : 세종</t>
+          <t>1489 : 성종</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3767,37 +2897,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>갑인자 주조</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>1434 : 세종</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
+      <c r="F88" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1466</v>
+        <v>1492</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5위 설치</t>
+          <t>도첩제 폐지</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>세조</t>
+          <t>성종</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1466 : 세조</t>
+          <t>1492 : 성종</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3805,37 +2925,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>5위 설치</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>1466 : 세조</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
+      <c r="F89" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1452</v>
+        <v>1498</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>고려사절요 편찬</t>
+          <t>무오사화</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>문종</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1452 : 문종</t>
+          <t>1498 : 연산군</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3843,37 +2953,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>고려사절요 편찬</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1452 : 문종</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+      <c r="F90" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1414</v>
+        <v>1504</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>노비종부법 실시</t>
+          <t>갑자사화</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>1504 : 연산군</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3881,37 +2981,27 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>노비종부법 실시</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>-1</v>
+      <c r="F91" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1414</v>
+        <v>1506</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>의금부 설치</t>
+          <t>중종반정</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>태종</t>
+          <t>연산군</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1414 : 태종</t>
+          <t>1506 : 연산군</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3919,17 +3009,7 @@
           <t>전기</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>의금부 설치</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>1414 : 태종</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
+      <c r="F92" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">

--- a/학습자료/단답형/조선_전기.xlsx
+++ b/학습자료/단답형/조선_전기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2583 +434,3498 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>시기</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>사건</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>왕</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>연도</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>왕</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1392</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>조선 건국</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1392 : 태조</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>-2</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>조선 건국</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1392 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>1393</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>의흥삼군부 설치</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1393 : 태조</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>-2</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>의흥삼군부 설치</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1393 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1394</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>개경에서 한양으로 천도</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1394 : 태조</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-2</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>개경에서 한양으로 천도</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1394 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1394</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>정도전 조선경국전 저술</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1394 : 태조</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>-2</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>정도전 조선경국전 저술</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1394 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>1395</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>경복궁 건립</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1395 : 태조</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>-2</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>경복궁 건립</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1395 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>1395</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>정도전 경제문감 저술</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1395 : 태조</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>-2</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>정도전 경제문감 저술</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1395 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>1395</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>정도전 고려국사 저술</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1395 : 태조</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>-2</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>정도전 고려국사 저술</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1395 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>1398</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>숭례문 건립</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1398 : 태조</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>숭례문 건립</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1398 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>1398</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1차 왕자의 난</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1398 : 태조</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>-2</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1차 왕자의 난</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1398 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>1398</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>정도전 불씨잡변 저술</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>태조</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1398 : 태조</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>-2</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>정도전 불씨잡변 저술</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1398 : 태조</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>1399</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>개경 천도</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>정종</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1399 : 정종</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>-2</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>개경 천도</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1399 : 정종</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>1400</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>의정부 설치 및 도평의사사 폐지</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>정종</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1400 : 정종</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-2</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>의정부 설치 및 도평의사사 폐지</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1400 : 정종</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>1400</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>승정원 설치</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>정종</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1400 : 정종</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>승정원 설치</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1400 : 정종</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>1400</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>2차 왕자의 난으로 정종 축출</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>정종</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1400 : 정종</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-2</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2차 왕자의 난으로 정종 축출</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1400 : 정종</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>1400</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>사병 혁파</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1400 : 태종</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-2</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>사병 혁파</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1400 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>1401</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>사간원 설치</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1401 : 태종</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-2</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>사간원 설치</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1401 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>1401</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>신문고 설치</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1401 : 태종</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-2</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>신문고 설치</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1401 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>1402</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>저화 재발행</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1402 : 태종</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>저화 재발행</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1402 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>1403</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>주자소 설치</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1403 : 태종</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>주자소 설치</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1403 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>1405</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>한양 재천도</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1405 : 태종</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-2</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>한양 재천도</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>1405</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>6조의 속사 속아문제도 실시</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1405 : 태종</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6조의 속사 속아문제도 실시</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>1405</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>양전 사업 실시</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1405 : 태종</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>-2</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>양전 사업 실시</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>1405</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>종로에 시전 설치</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1405 : 태종</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>-2</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>종로에 시전 설치</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>1405</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>승정원 독립 및 설치</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1405 : 태종</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>-2</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>승정원 독립 및 설치</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>1406</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>유향소 폐지</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1406 : 태종</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>-1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>유향소 폐지</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1406 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>1406</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>사원 혁파</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1406 : 태종</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>-2</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>사원 혁파</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1406 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>1406</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>여진 무역소 설치</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1406 : 태종</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>-2</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>여진 무역소 설치</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1406 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>1413</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>호패법 실시</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1413 : 태종</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>-2</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>호패법 실시</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1413 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>1413</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>태조실록 편찬</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1413 : 태종</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>-2</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>태조실록 편찬</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1413 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>1414</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>6조 직계제 실시</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1414 : 태종</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>-2</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6조 직계제 실시</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1414 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>1414</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>의금부 설치</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1414 : 태종</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>-2</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>의금부 설치</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1414 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>1414</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>노비종부법 실시</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1414 : 태종</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>-2</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>노비종부법 실시</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1414 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>1415</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>조지서 설치</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1415 : 태종</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>-2</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>조지서 설치</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1415 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>1415</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>서얼금고법 실시</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1415 : 태종</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>서얼금고법 실시</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1415 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>1417</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>과전의 1/3을 하삼도 토지에서 지급</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>태종</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1417 : 태종</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>-2</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>과전의 1/3을 하삼도 토지에서 지급</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1417 : 태종</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>1419</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>이종무의 대마도 토벌</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1419 : 세종</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>-2</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>이종무의 대마도 토벌</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1419 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>1420</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>집현전 설치</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1420 : 세종</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>-1</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>집현전 설치</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>1420</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>경자자 주조</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1420 : 세종</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>-1</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>경자자 주조</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>1423</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>조선통보 발행</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1423 : 세종</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>-2</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>조선통보 발행</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1423 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>1424</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>36개 불교 사원만 인정</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1424 : 세종</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>-2</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>36개 불교 사원만 인정</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>1426</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>3포 개항</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1426 : 세종</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>-2</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3포 개항</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1426 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>1429</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>정초 변효문 농사직설 편찬</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1429 : 세종</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>정초 변효문 농사직설 편찬</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1429 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>1431</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>과전 지급 토지를 경기로 환원</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1431 : 세종</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>-1</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>과전 지급 토지를 경기로 환원</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1431 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>1432</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1432 : 세종</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>-2</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>변계량 맹사성 등 신찬팔도지리지 편찬</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1432 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>1433</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>최윤덕의 4군 설치</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1433 : 세종</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>-2</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>최윤덕의 4군 설치</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1433 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>1433</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>향약집성방 편찬</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1433 : 세종</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>-2</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>향약집성방 편찬</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1433 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>1434</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>앙부일구 제작</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1434 : 세종</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>-2</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>앙부일구 제작</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1434 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>1434</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>갑인자 주조</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1434 : 세종</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>-2</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>갑인자 주조</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1434 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>1434</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>삼강행실도 언해</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1434 : 세종</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>-2</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>삼강행실도 언해</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1434 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>1435</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>경재소 제도화</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1435 : 세종</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>경재소 제도화</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1435 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>1436</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>의정부 서사제 실시</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1436 : 세종</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>-2</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>의정부 서사제 실시</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1436 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>1437</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>김종서의 6진 설치</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1437 : 세종</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>-2</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>김종서의 6진 설치</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1437 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>1442</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>이순지의 칠정산 편찬</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1442 : 세종</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>-2</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>이순지의 칠정산 편찬</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1442 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>1443</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>계해약조 체결</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1443 : 세종</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>-2</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>계해약조 체결</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1443 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>1444</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>칠정산 저술</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1444 : 세종</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>-2</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>칠정산 저술</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>1444</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>공법 시행</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1444 : 세종</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>공법 시행</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>1445</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>용비어천가 간행</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1445 : 세종</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>용비어천가 간행</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>1445</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>의방유취 편찬</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1445 : 세종</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>-2</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>의방유취 편찬</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>1446</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>훈민정음 반포</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1446 : 세종</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>-2</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>훈민정음 반포</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1446 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>1447</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>수양대군의 석보상절 간행</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1447 : 세종</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>-2</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>수양대군의 석보상절 간행</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1447 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>1449</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>월인천강지곡 간행</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>세종</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1449 : 세종</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>-2</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>월인천강지곡 간행</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1449 : 세종</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>1451</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>국가 주도의 사창제 실시</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>문종</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1451 : 문종</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>-2</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>국가 주도의 사창제 실시</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1451 : 문종</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>1452</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>고려사절요 편찬</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>문종</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1452 : 문종</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>-2</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>고려사절요 편찬</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1452 : 문종</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>1453</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>계유정난</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>단종</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1453 : 단종</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>-3</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>계유정난</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1453 : 단종</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>1453</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>이징옥의 난</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>단종</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1453 : 단종</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>-3</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>이징옥의 난</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1453 : 단종</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>1456</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>사육신의 단종 복위 운동</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1456 : 세조</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>-3</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>사육신의 단종 복위 운동</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1456 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>1457</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>진관체제 실시</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1457 : 세조</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>-3</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>진관체제 실시</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1457 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>1463</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>양성지 동국지도 제작</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1463 : 세조</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>-3</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>양성지 동국지도 제작</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1463 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>1464</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>보법 수립</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1464 : 세조</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>-3</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>보법 수립</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1464 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>1464</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>팔방통보 유엽전 발행</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1464 : 세조</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>-3</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>팔방통보 유엽전 발행</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1464 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>1465</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>규형 및 인지의 제작</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1465 : 세조</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>-1</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>규형 및 인지의 제작</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1465 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>1466</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>직전법 실시</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1466 : 세조</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>-3</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>직전법 실시</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>1466</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>5위 설치</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1466 : 세조</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5위 설치</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>1466</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>평시서 설치</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1466 : 세조</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>-1</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>평시서 설치</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>1466</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>소격서 설치</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1466 : 세조</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>-3</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>소격서 설치</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>1467</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>이시애의 난</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1467 : 세조</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>-3</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>이시애의 난</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>1467</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>원각사지 10층석탑 제작</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1467 : 세조</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>-3</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>원각사지 10층석탑 제작</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>1467</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>장례원 설치</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>세조</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1467 : 세조</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>-3</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>장례원 설치</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>1469</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>관수관급제 실시</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1469 : 성종</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>-3</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>관수관급제 실시</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1469 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>1470</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>국가 주도의 사창제 폐지</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1470 : 성종</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>-3</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>국가 주도의 사창제 폐지</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1470 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>1471</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>신숙주 해동제국기 편찬</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1471 : 성종</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>-3</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>신숙주 해동제국기 편찬</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1471 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>1474</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>신숙주 국조오례의 저술</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1474 : 성종</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>-3</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>신숙주 국조오례의 저술</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1474 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>1476</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>안동 권씨 성화보 간행</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1476 : 성종</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>-3</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>안동 권씨 성화보 간행</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1476 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>1478</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>서거정 등 동문선 저술</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1478 : 성종</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>-3</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>서거정 등 동문선 저술</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1478 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>1485</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>서거정 등 동국통감 편찬</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1485 : 성종</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>-3</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>서거정 등 동국통감 편찬</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1485 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>1485</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>경국대전 완성</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1485 : 성종</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>-2</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>경국대전 완성</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1485 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>1489</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>유향소 부활</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1489 : 성종</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>-1</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>유향소 부활</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1489 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>1492</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>도첩제 폐지</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>성종</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1492 : 성종</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>-2</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>도첩제 폐지</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1492 : 성종</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>1498</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>무오사화</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>연산군</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1498 : 연산군</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>-2</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>무오사화</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1498 : 연산군</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>1504</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>갑자사화</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>연산군</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1504 : 연산군</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>-3</v>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>갑자사화</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1504 : 연산군</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>1506</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>중종반정</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>연산군</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1506 : 연산군</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>-2</v>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>중종반정</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1506 : 연산군</t>
+        </is>
       </c>
     </row>
   </sheetData>
